--- a/maplib/files/input_files/input.xlsx
+++ b/maplib/files/input_files/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,17 @@
     <sheet name="Line 23" sheetId="25" r:id="rId23"/>
     <sheet name="Pujiang Line" sheetId="26" r:id="rId24"/>
     <sheet name="Chongming Line" sheetId="27" r:id="rId25"/>
+    <sheet name="Airport Line" sheetId="29" r:id="rId26"/>
+    <sheet name="Jiamin Line" sheetId="30" r:id="rId27"/>
+    <sheet name="Maglev Line" sheetId="28" r:id="rId28"/>
+    <sheet name="Jinshan Railway" sheetId="31" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1143">
   <si>
     <t>Pujiang Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2324,10 +2328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>International Curise Terminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Guilin Park</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2973,10 +2973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xujingbeicheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Middle Jiasong Road</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3387,10 +3383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洪建路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yangtai Road</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3956,6 +3948,332 @@
   </si>
   <si>
     <t>Yuanshen Stadium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maglev Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁悬浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹建路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xujing Beicheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Cruise Terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 0 46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 255 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 214 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 0 245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130 56 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224 0 184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255 79 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 222 245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133 242 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191 168 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111 10 46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 166 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>242 125 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71 89 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 140 126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143 255 179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179 102 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179 125 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57 158 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 87 169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218 174 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240 133 101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177 177 179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 193 154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46 128 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214 184 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airport Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场联络线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景洪路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度假区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海东站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai East Railway Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186 158 55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 48 143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiamin Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉闵线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉戬公路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiajian Highway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tianshan Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南翔火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nanxiang Railway Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山西路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Tianshan Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莘庄北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Xinzhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎宾三路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yinbinsan Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪星路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huxing Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 86 93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinshan Railway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春申</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xinqiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车墩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chedun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶榭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yexie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亭林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinglin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinshan Yuanqu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinshanwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东机场T3航站楼</t>
+  </si>
+  <si>
+    <t>Pudong Airport Terminal 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dujiaqu</t>
+  </si>
+  <si>
+    <t>Zhangjiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4303,20 +4621,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B1" t="s">
         <v>69</v>
@@ -4324,22 +4644,16 @@
       <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>250</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -4347,22 +4661,16 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>125</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -4370,22 +4678,16 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>214</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -4393,22 +4695,16 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>245</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -4416,22 +4712,16 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>130</v>
-      </c>
-      <c r="E5">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -4439,22 +4729,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>224</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>184</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -4462,22 +4746,16 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>255</v>
-      </c>
-      <c r="E7">
-        <v>79</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -4485,22 +4763,16 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>222</v>
-      </c>
-      <c r="F8">
-        <v>245</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -4508,22 +4780,16 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>133</v>
-      </c>
-      <c r="E9">
-        <v>242</v>
-      </c>
-      <c r="F9">
-        <v>250</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -4531,22 +4797,16 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>191</v>
-      </c>
-      <c r="E10">
-        <v>168</v>
-      </c>
-      <c r="F10">
-        <v>255</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -4554,22 +4814,16 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>111</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -4577,22 +4831,16 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>166</v>
-      </c>
-      <c r="F12">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
@@ -4600,22 +4848,16 @@
       <c r="C13">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>242</v>
-      </c>
-      <c r="E13">
-        <v>125</v>
-      </c>
-      <c r="F13">
-        <v>255</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -4623,22 +4865,16 @@
       <c r="C14">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>71</v>
-      </c>
-      <c r="E14">
-        <v>89</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -4646,22 +4882,16 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>105</v>
-      </c>
-      <c r="E15">
-        <v>140</v>
-      </c>
-      <c r="F15">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -4669,22 +4899,16 @@
       <c r="C16">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>143</v>
-      </c>
-      <c r="E16">
-        <v>255</v>
-      </c>
-      <c r="F16">
-        <v>179</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -4692,22 +4916,16 @@
       <c r="C17">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>179</v>
-      </c>
-      <c r="E17">
-        <v>102</v>
-      </c>
-      <c r="F17">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="D17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -4715,22 +4933,16 @@
       <c r="C18">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>179</v>
-      </c>
-      <c r="E18">
-        <v>125</v>
-      </c>
-      <c r="F18">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -4738,22 +4950,16 @@
       <c r="C19">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="E19">
-        <v>158</v>
-      </c>
-      <c r="F19">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -4761,22 +4967,16 @@
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>52</v>
-      </c>
-      <c r="E20">
-        <v>87</v>
-      </c>
-      <c r="F20">
-        <v>169</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -4784,43 +4984,31 @@
       <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21">
-        <v>218</v>
-      </c>
-      <c r="E21">
-        <v>174</v>
-      </c>
-      <c r="F21">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>240</v>
-      </c>
-      <c r="E22">
-        <v>133</v>
-      </c>
-      <c r="F22">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4828,22 +5016,16 @@
         <v>90</v>
       </c>
       <c r="C23">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>177</v>
-      </c>
-      <c r="E23">
-        <v>177</v>
-      </c>
-      <c r="F23">
-        <v>179</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4851,19 +5033,93 @@
         <v>91</v>
       </c>
       <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>107</v>
-      </c>
-      <c r="E24">
-        <v>193</v>
-      </c>
-      <c r="F24">
-        <v>154</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1052</v>
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +5134,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5056,7 +5312,7 @@
         <v>435</v>
       </c>
       <c r="D9" s="1">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <v>156</v>
@@ -5076,7 +5332,7 @@
         <v>434</v>
       </c>
       <c r="D10" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>156</v>
@@ -5096,7 +5352,7 @@
         <v>433</v>
       </c>
       <c r="D11" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1">
         <v>156</v>
@@ -5105,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5116,7 +5372,7 @@
         <v>432</v>
       </c>
       <c r="D12" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1">
         <v>156</v>
@@ -5136,7 +5392,7 @@
         <v>431</v>
       </c>
       <c r="D13" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
         <v>156</v>
@@ -5156,7 +5412,7 @@
         <v>430</v>
       </c>
       <c r="D14" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1">
         <v>156</v>
@@ -5571,8 +5827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5886,7 +6142,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>492</v>
@@ -6128,13 +6384,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D30" s="1">
         <v>122</v>
@@ -6166,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6177,7 +6433,7 @@
         <v>503</v>
       </c>
       <c r="D32" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1">
         <v>180</v>
@@ -6186,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6194,7 +6450,7 @@
         <v>94</v>
       </c>
       <c r="D33" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1">
         <v>180</v>
@@ -6225,7 +6481,7 @@
         <v>533</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="1">
         <v>118</v>
@@ -6277,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6290,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6497,7 +6753,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D11" s="1">
         <v>176</v>
@@ -6667,22 +6923,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D21" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1">
         <v>220</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6693,13 +6949,13 @@
         <v>551</v>
       </c>
       <c r="D22" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1">
         <v>227</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -6776,13 +7032,13 @@
         <v>126</v>
       </c>
       <c r="E26" s="1">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6796,7 +7052,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="1">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -6813,16 +7069,16 @@
         <v>557</v>
       </c>
       <c r="D28" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6833,16 +7089,16 @@
         <v>568</v>
       </c>
       <c r="D29" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6850,19 +7106,19 @@
         <v>566</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D30" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6873,19 +7129,19 @@
         <v>558</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D31" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6899,7 +7155,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="1">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
@@ -6919,13 +7175,13 @@
         <v>88</v>
       </c>
       <c r="E33" s="1">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6939,13 +7195,13 @@
         <v>93</v>
       </c>
       <c r="E34" s="1">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6956,13 +7212,13 @@
         <v>593</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -6979,10 +7235,10 @@
         <v>594</v>
       </c>
       <c r="D36" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -6999,16 +7255,16 @@
         <v>595</v>
       </c>
       <c r="D37" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7019,10 +7275,10 @@
         <v>596</v>
       </c>
       <c r="D38" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -7039,16 +7295,16 @@
         <v>597</v>
       </c>
       <c r="D39" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7059,10 +7315,10 @@
         <v>598</v>
       </c>
       <c r="D40" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -7079,16 +7335,16 @@
         <v>599</v>
       </c>
       <c r="D41" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7101,13 +7357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -7356,7 +7612,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>635</v>
+        <v>1066</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>617</v>
@@ -7530,7 +7786,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>618</v>
@@ -7550,7 +7806,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>619</v>
@@ -7570,7 +7826,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>620</v>
@@ -7590,7 +7846,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>621</v>
@@ -7610,7 +7866,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>622</v>
@@ -7630,13 +7886,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D31" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1">
         <v>136</v>
@@ -7650,13 +7906,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>624</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E32" s="1">
         <v>136</v>
@@ -7665,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7678,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7691,10 +7947,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1" s="1">
         <v>86</v>
@@ -7711,10 +7967,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D2" s="1">
         <v>86</v>
@@ -7731,10 +7987,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" s="1">
         <v>86</v>
@@ -7751,10 +8007,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D4" s="1">
         <v>86</v>
@@ -7771,10 +8027,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D5" s="1">
         <v>92</v>
@@ -7791,13 +8047,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D6" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1">
         <v>212</v>
@@ -7806,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D7" s="1">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1">
         <v>212</v>
@@ -7831,13 +8087,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D8" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1">
         <v>212</v>
@@ -7846,18 +8102,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D9" s="1">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>212</v>
@@ -7871,13 +8127,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D10" s="1">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1">
         <v>212</v>
@@ -7891,22 +8147,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D11" s="1">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7939,10 +8195,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D14" s="1">
         <v>167</v>
@@ -7973,10 +8229,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D16" s="1">
         <v>184</v>
@@ -8007,10 +8263,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D18" s="1">
         <v>194</v>
@@ -8041,10 +8297,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D20" s="1">
         <v>192</v>
@@ -8089,10 +8345,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D23" s="1">
         <v>198</v>
@@ -8109,10 +8365,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" s="1">
         <v>198</v>
@@ -8129,7 +8385,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>315</v>
@@ -8177,10 +8433,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D28" s="1">
         <v>226</v>
@@ -8197,10 +8453,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D29" s="1">
         <v>235</v>
@@ -8217,10 +8473,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D30" s="1">
         <v>244</v>
@@ -8237,10 +8493,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D31" s="1">
         <v>250</v>
@@ -8257,10 +8513,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D32" s="1">
         <v>258</v>
@@ -8277,10 +8533,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D33" s="1">
         <v>267</v>
@@ -8297,10 +8553,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D34" s="1">
         <v>278</v>
@@ -8317,10 +8573,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D35" s="1">
         <v>286</v>
@@ -8337,10 +8593,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D36" s="1">
         <v>294</v>
@@ -8366,7 +8622,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8376,10 +8632,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1">
         <v>92</v>
@@ -8396,10 +8652,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -8416,13 +8672,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>227</v>
@@ -8436,13 +8692,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>227</v>
@@ -8456,10 +8712,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D5">
         <v>124</v>
@@ -8476,13 +8732,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>227</v>
@@ -8496,13 +8752,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>227</v>
@@ -8516,13 +8772,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8">
         <v>227</v>
@@ -8539,7 +8795,7 @@
         <v>551</v>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>227</v>
@@ -8553,7 +8809,7 @@
         <v>576</v>
       </c>
       <c r="B10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D10">
         <v>163</v>
@@ -8565,15 +8821,15 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D11">
         <v>167</v>
@@ -8590,7 +8846,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D12">
         <v>167</v>
@@ -8604,10 +8860,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D13">
         <v>169</v>
@@ -8694,10 +8950,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D19">
         <v>235</v>
@@ -8728,10 +8984,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D21">
         <v>250</v>
@@ -8748,10 +9004,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D22">
         <v>258</v>
@@ -8768,10 +9024,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D23">
         <v>266</v>
@@ -8788,10 +9044,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D24">
         <v>274</v>
@@ -8836,10 +9092,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D27">
         <v>282</v>
@@ -8856,10 +9112,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D28">
         <v>288</v>
@@ -8876,10 +9132,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D29">
         <v>294</v>
@@ -8896,10 +9152,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D30">
         <v>310</v>
@@ -8916,10 +9172,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D31">
         <v>320</v>
@@ -8944,8 +9200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8956,7 +9212,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1">
         <v>155</v>
@@ -8970,10 +9226,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D2">
         <v>155</v>
@@ -8990,10 +9246,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D3">
         <v>155</v>
@@ -9010,10 +9266,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D4">
         <v>155</v>
@@ -9030,10 +9286,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D5">
         <v>155</v>
@@ -9050,10 +9306,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D6">
         <v>155</v>
@@ -9070,10 +9326,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D7">
         <v>155</v>
@@ -9104,30 +9360,30 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>227</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -9138,24 +9394,24 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D12">
         <v>140</v>
@@ -9164,18 +9420,21 @@
         <v>203</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1111</v>
+      </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>1110</v>
       </c>
       <c r="D13">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>194</v>
@@ -9183,13 +9442,16 @@
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D14">
         <v>134</v>
@@ -9206,10 +9468,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D15">
         <v>137</v>
@@ -9226,10 +9488,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D16">
         <v>140</v>
@@ -9288,16 +9550,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D20">
         <v>140</v>
       </c>
       <c r="E20">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -9308,16 +9570,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D21">
         <v>140</v>
       </c>
       <c r="E21">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -9328,16 +9590,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D22">
         <v>140</v>
       </c>
       <c r="E22">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -9348,36 +9610,36 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D23">
         <v>140</v>
       </c>
       <c r="E23">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D24">
         <v>137</v>
       </c>
       <c r="E24">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -9388,16 +9650,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D25">
         <v>133</v>
       </c>
       <c r="E25">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -9408,16 +9670,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D26">
         <v>130</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -9428,16 +9690,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D27">
         <v>130</v>
       </c>
       <c r="E27">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -9448,16 +9710,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D28">
         <v>130</v>
       </c>
       <c r="E28">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -9468,16 +9730,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D29">
         <v>130</v>
       </c>
       <c r="E29">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -9488,16 +9750,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D30">
         <v>130</v>
       </c>
       <c r="E30">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -9543,7 +9805,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="1">
         <v>266</v>
@@ -9557,7 +9819,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D3" s="1">
         <v>268</v>
@@ -9585,10 +9847,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D5" s="1">
         <v>268</v>
@@ -9605,10 +9867,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" s="1">
         <v>268</v>
@@ -9625,10 +9887,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D7" s="1">
         <v>268</v>
@@ -9645,10 +9907,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D8" s="1">
         <v>283</v>
@@ -9665,10 +9927,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D9" s="1">
         <v>302</v>
@@ -9685,10 +9947,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D10" s="1">
         <v>334</v>
@@ -9705,10 +9967,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11" s="1">
         <v>338</v>
@@ -9725,10 +9987,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D12" s="1">
         <v>344</v>
@@ -9745,10 +10007,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D13" s="1">
         <v>356</v>
@@ -9765,10 +10027,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D14" s="1">
         <v>364</v>
@@ -9793,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9806,7 +10068,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D1" s="1">
         <v>98</v>
@@ -9820,7 +10082,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D2" s="1">
         <v>86</v>
@@ -9834,10 +10096,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D3" s="1">
         <v>80</v>
@@ -9854,10 +10116,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D4" s="1">
         <v>74</v>
@@ -9874,10 +10136,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>1065</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D5" s="1">
         <v>68</v>
@@ -9894,10 +10156,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D6" s="1">
         <v>62</v>
@@ -9914,10 +10176,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D7" s="1">
         <v>55</v>
@@ -9934,10 +10196,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D8" s="1">
         <v>48</v>
@@ -9954,10 +10216,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D9" s="1">
         <v>41</v>
@@ -9974,10 +10236,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D10" s="1">
         <v>34</v>
@@ -9994,7 +10256,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="1">
         <v>31</v>
@@ -10008,10 +10270,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D12" s="1">
         <v>29</v>
@@ -10028,7 +10290,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D13" s="1">
         <v>27</v>
@@ -10042,10 +10304,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -10062,10 +10324,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -10090,8 +10352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10102,10 +10364,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D1">
         <v>188</v>
@@ -10122,7 +10384,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D2">
         <v>198</v>
@@ -10136,13 +10398,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>262</v>
@@ -10156,13 +10418,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D4">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>262</v>
@@ -10171,15 +10433,15 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D5">
         <v>219</v>
@@ -10196,7 +10458,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D6">
         <v>224</v>
@@ -10210,10 +10472,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D7">
         <v>228</v>
@@ -10230,10 +10492,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D8">
         <v>232</v>
@@ -10245,15 +10507,15 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D9">
         <v>239</v>
@@ -10270,7 +10532,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D10">
         <v>246</v>
@@ -10284,10 +10546,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D11">
         <v>252</v>
@@ -10318,7 +10580,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D13">
         <v>252</v>
@@ -10332,10 +10594,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B14" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D14">
         <v>252</v>
@@ -10352,10 +10614,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D15">
         <v>252</v>
@@ -10372,7 +10634,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D16">
         <v>258</v>
@@ -10386,7 +10648,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D17">
         <v>258</v>
@@ -10400,7 +10662,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D18">
         <v>258</v>
@@ -10414,10 +10676,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D19">
         <v>258</v>
@@ -10434,13 +10696,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D20">
         <v>258</v>
       </c>
       <c r="E20">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -10448,10 +10710,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D21">
         <v>258</v>
@@ -10468,10 +10730,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B22" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D22">
         <v>258</v>
@@ -10488,7 +10750,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D23">
         <v>258</v>
@@ -10502,7 +10764,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D24">
         <v>258</v>
@@ -10516,10 +10778,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D25">
         <v>250</v>
@@ -10536,10 +10798,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B26" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D26">
         <v>250</v>
@@ -10556,10 +10818,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D27">
         <v>250</v>
@@ -10576,10 +10838,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D28">
         <v>250</v>
@@ -10596,10 +10858,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D29">
         <v>250</v>
@@ -10616,10 +10878,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -10636,10 +10898,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B31" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D31">
         <v>250</v>
@@ -10666,7 +10928,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10713,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10938,7 +11200,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -11267,8 +11529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11278,13 +11540,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E1">
         <v>280</v>
@@ -11298,13 +11560,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2">
         <v>276</v>
@@ -11318,13 +11580,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>270</v>
@@ -11338,13 +11600,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D4">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>266</v>
@@ -11358,10 +11620,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D5">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>262</v>
@@ -11372,13 +11634,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D6">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>256</v>
@@ -11392,13 +11654,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>250</v>
@@ -11412,13 +11674,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>244</v>
@@ -11432,13 +11694,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>238</v>
@@ -11452,13 +11714,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D10">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10">
         <v>232</v>
@@ -11472,10 +11734,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D11">
         <v>223</v>
@@ -11492,10 +11754,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12">
         <v>223</v>
@@ -11512,7 +11774,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D13">
         <v>225</v>
@@ -11526,10 +11788,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D14">
         <v>231</v>
@@ -11546,7 +11808,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D15">
         <v>234</v>
@@ -11560,7 +11822,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D16">
         <v>234</v>
@@ -11574,7 +11836,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D17">
         <v>230</v>
@@ -11588,10 +11850,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D18">
         <v>227</v>
@@ -11608,7 +11870,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D19">
         <v>227</v>
@@ -11622,10 +11884,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D20">
         <v>224</v>
@@ -11642,10 +11904,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B21" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D21">
         <v>218</v>
@@ -11662,10 +11924,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B22" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D22">
         <v>209</v>
@@ -11682,7 +11944,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D23">
         <v>198</v>
@@ -11696,7 +11958,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="C24" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D24">
         <v>192</v>
@@ -11710,7 +11972,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D25">
         <v>190</v>
@@ -11724,10 +11986,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B26" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D26">
         <v>190</v>
@@ -11744,7 +12006,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D27">
         <v>190</v>
@@ -11764,7 +12026,7 @@
         <v>190</v>
       </c>
       <c r="E28">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -11772,16 +12034,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B29" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D29">
         <v>184</v>
       </c>
       <c r="E29">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -11792,16 +12054,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D30">
         <v>158</v>
       </c>
       <c r="E30">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -11812,13 +12074,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D31">
         <v>141</v>
       </c>
       <c r="E31">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -11826,16 +12088,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B32" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D32">
         <v>141</v>
       </c>
       <c r="E32">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -11846,16 +12108,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B33" t="s">
-        <v>921</v>
+        <v>1064</v>
       </c>
       <c r="D33">
         <v>141</v>
       </c>
       <c r="E33">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -11874,8 +12136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11886,10 +12148,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D1">
         <v>142</v>
@@ -11906,7 +12168,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -11920,10 +12182,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D3">
         <v>163</v>
@@ -11940,7 +12202,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D4">
         <v>174</v>
@@ -11954,10 +12216,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D5">
         <v>180</v>
@@ -11974,10 +12236,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B6" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D6">
         <v>186</v>
@@ -11994,7 +12256,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D7">
         <v>198</v>
@@ -12008,10 +12270,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>233</v>
@@ -12022,13 +12284,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B9" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9">
         <v>238</v>
@@ -12042,13 +12304,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D10">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10">
         <v>242</v>
@@ -12062,7 +12324,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D11">
         <v>219</v>
@@ -12076,7 +12338,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D12">
         <v>233</v>
@@ -12090,7 +12352,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D13">
         <v>248</v>
@@ -12104,10 +12366,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B14" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D14">
         <v>256</v>
@@ -12138,10 +12400,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B16" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D16">
         <v>273</v>
@@ -12167,7 +12429,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12177,7 +12439,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D1">
         <v>295</v>
@@ -12191,7 +12453,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D2">
         <v>302</v>
@@ -12219,7 +12481,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D4">
         <v>294</v>
@@ -12233,10 +12495,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D5">
         <v>294</v>
@@ -12253,7 +12515,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D6">
         <v>294</v>
@@ -12267,10 +12529,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D7">
         <v>286</v>
@@ -12287,10 +12549,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D8">
         <v>286</v>
@@ -12307,7 +12569,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D9">
         <v>286</v>
@@ -12321,10 +12583,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D10">
         <v>286</v>
@@ -12341,10 +12603,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D11">
         <v>281</v>
@@ -12361,10 +12623,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B12" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D12">
         <v>286</v>
@@ -12395,10 +12657,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B14" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D14">
         <v>312</v>
@@ -12415,10 +12677,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B15" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D15">
         <v>322</v>
@@ -12443,8 +12705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12455,7 +12717,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D1">
         <v>167</v>
@@ -12469,7 +12731,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D2">
         <v>159</v>
@@ -12483,10 +12745,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D3">
         <v>159</v>
@@ -12503,16 +12765,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -12523,16 +12785,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -12543,16 +12805,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -12563,13 +12825,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D7">
         <v>159</v>
       </c>
       <c r="E7">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -12577,96 +12839,96 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E11">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B12" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D12">
         <v>150</v>
       </c>
       <c r="E12">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -12677,16 +12939,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B13" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D13">
         <v>150</v>
       </c>
       <c r="E13">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -12697,16 +12959,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B14" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D14">
         <v>150</v>
       </c>
       <c r="E14">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -12717,33 +12979,33 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B15" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D15">
         <v>140</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D16">
         <v>130</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -12751,33 +13013,33 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B17" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D17">
         <v>122</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D18">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -12788,13 +13050,13 @@
         <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D19">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -12808,19 +13070,19 @@
         <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12828,13 +13090,13 @@
         <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D21">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -12845,22 +13107,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B22" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D22">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12874,7 +13136,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12890,7 +13152,7 @@
         <v>191</v>
       </c>
       <c r="E1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -12898,36 +13160,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D3">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -12938,16 +13200,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -12958,16 +13220,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -12978,16 +13240,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13032,7 +13294,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D2" s="1">
         <v>312</v>
@@ -13046,10 +13308,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D3" s="1">
         <v>316</v>
@@ -13066,10 +13328,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="1">
         <v>330</v>
@@ -13086,7 +13348,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D5" s="1">
         <v>334</v>
@@ -13100,10 +13362,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D6" s="1">
         <v>342</v>
@@ -13120,10 +13382,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="1">
         <v>364</v>
@@ -13140,7 +13402,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D8" s="1">
         <v>370</v>
@@ -13154,10 +13416,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D9" s="1">
         <v>374</v>
@@ -13174,10 +13436,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D10" s="1">
         <v>374</v>
@@ -13190,6 +13452,828 @@
       </c>
       <c r="G10" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D3">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D5">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D6">
+        <v>258</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D7">
+        <v>281</v>
+      </c>
+      <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D8">
+        <v>312</v>
+      </c>
+      <c r="E8">
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D9" s="1">
+        <v>347</v>
+      </c>
+      <c r="E9" s="1">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D12">
+        <v>347</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D13">
+        <v>344</v>
+      </c>
+      <c r="E13">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D2">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>283</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>276</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1">
+        <v>251</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1">
+        <v>238</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>226</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1">
+        <v>211</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1">
+        <v>182</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1">
+        <v>173</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>104</v>
+      </c>
+      <c r="E13" s="1">
+        <v>156</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>104</v>
+      </c>
+      <c r="E14" s="1">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D15" s="1">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1">
+        <v>111</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D2" s="1">
+        <v>266</v>
+      </c>
+      <c r="E2" s="1">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" s="1">
+        <v>271</v>
+      </c>
+      <c r="E3" s="1">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4" s="1">
+        <v>280</v>
+      </c>
+      <c r="E4" s="1">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D5" s="1">
+        <v>330</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D6" s="1">
+        <v>348</v>
+      </c>
+      <c r="E6" s="1">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -13202,8 +14286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13250,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13261,7 +14345,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1">
         <v>181</v>
@@ -13270,12 +14354,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D4" s="1">
         <v>108</v>
@@ -13315,7 +14399,7 @@
         <v>96</v>
       </c>
       <c r="D6" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1">
         <v>194</v>
@@ -13335,7 +14419,7 @@
         <v>97</v>
       </c>
       <c r="D7" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1">
         <v>194</v>
@@ -13355,13 +14439,13 @@
         <v>98</v>
       </c>
       <c r="D8" s="1">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -13449,7 +14533,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D13" s="1">
         <v>204</v>
@@ -13463,7 +14547,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>103</v>
@@ -14013,7 +15097,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D10" s="1">
         <v>152</v>
@@ -14512,7 +15596,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D6" s="1">
         <v>153</v>
@@ -14830,7 +15914,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>212</v>
@@ -14913,7 +15997,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14948,7 +16032,7 @@
         <v>114</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -14988,7 +16072,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -15008,7 +16092,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -15028,7 +16112,7 @@
         <v>114</v>
       </c>
       <c r="E6" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -15048,7 +16132,7 @@
         <v>114</v>
       </c>
       <c r="E7" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -15068,7 +16152,7 @@
         <v>114</v>
       </c>
       <c r="E8" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -15088,7 +16172,7 @@
         <v>114</v>
       </c>
       <c r="E9" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -15108,7 +16192,7 @@
         <v>114</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -15128,7 +16212,7 @@
         <v>114</v>
       </c>
       <c r="E11" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -15148,7 +16232,7 @@
         <v>118</v>
       </c>
       <c r="E12" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -15168,7 +16252,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -15188,7 +16272,7 @@
         <v>127</v>
       </c>
       <c r="E14" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -15208,7 +16292,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -15227,7 +16311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -15320,7 +16404,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D5" s="1">
         <v>297</v>
@@ -15554,7 +16638,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>275</v>
@@ -15810,8 +16894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15971,7 +17055,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>315</v>
@@ -16011,7 +17095,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D11" s="1">
         <v>178</v>
@@ -16410,7 +17494,7 @@
         <v>154</v>
       </c>
       <c r="E32" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
@@ -16427,10 +17511,10 @@
         <v>334</v>
       </c>
       <c r="D33" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
@@ -16447,7 +17531,7 @@
         <v>335</v>
       </c>
       <c r="D34" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E34" s="1">
         <v>296</v>
@@ -16470,8 +17554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16492,7 +17576,7 @@
         <v>191</v>
       </c>
       <c r="E1" s="1">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1">
         <v>2</v>
@@ -16512,7 +17596,7 @@
         <v>191</v>
       </c>
       <c r="E2" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -16532,7 +17616,7 @@
         <v>191</v>
       </c>
       <c r="E3" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -16552,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="E4" s="1">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -16572,7 +17656,7 @@
         <v>191</v>
       </c>
       <c r="E5" s="1">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -16592,7 +17676,7 @@
         <v>191</v>
       </c>
       <c r="E6" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -16680,7 +17764,7 @@
         <v>206</v>
       </c>
       <c r="E11" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>

--- a/maplib/files/input_files/input.xlsx
+++ b/maplib/files/input_files/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" firstSheet="23" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -12428,8 +12428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12618,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13686,7 +13686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/maplib/files/input_files/input.xlsx
+++ b/maplib/files/input_files/input.xlsx
@@ -4,45 +4,47 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Line 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Line 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Line 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Line 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Line 5" sheetId="6" r:id="rId6"/>
-    <sheet name="Line 6" sheetId="7" r:id="rId7"/>
-    <sheet name="Line 7" sheetId="8" r:id="rId8"/>
-    <sheet name="Line 8" sheetId="9" r:id="rId9"/>
-    <sheet name="Line 9" sheetId="10" r:id="rId10"/>
-    <sheet name="Line 10" sheetId="11" r:id="rId11"/>
-    <sheet name="Line 11" sheetId="13" r:id="rId12"/>
-    <sheet name="Line 12" sheetId="15" r:id="rId13"/>
-    <sheet name="Line 13" sheetId="16" r:id="rId14"/>
-    <sheet name="Line 14" sheetId="17" r:id="rId15"/>
-    <sheet name="Line 15" sheetId="18" r:id="rId16"/>
-    <sheet name="Line 16" sheetId="19" r:id="rId17"/>
-    <sheet name="Line 17" sheetId="20" r:id="rId18"/>
-    <sheet name="Line 18" sheetId="21" r:id="rId19"/>
-    <sheet name="Line 19" sheetId="22" r:id="rId20"/>
-    <sheet name="Line 20" sheetId="23" r:id="rId21"/>
-    <sheet name="Line 21" sheetId="24" r:id="rId22"/>
-    <sheet name="Line 23" sheetId="25" r:id="rId23"/>
-    <sheet name="Pujiang Line" sheetId="26" r:id="rId24"/>
-    <sheet name="Chongming Line" sheetId="27" r:id="rId25"/>
-    <sheet name="Airport Line" sheetId="29" r:id="rId26"/>
-    <sheet name="Jiamin Line" sheetId="30" r:id="rId27"/>
-    <sheet name="Maglev Line" sheetId="28" r:id="rId28"/>
-    <sheet name="Jinshan Railway" sheetId="31" r:id="rId29"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="district name" sheetId="32" r:id="rId2"/>
+    <sheet name="water area name" sheetId="33" r:id="rId3"/>
+    <sheet name="Line 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Line 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Line 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Line 4" sheetId="5" r:id="rId7"/>
+    <sheet name="Line 5" sheetId="6" r:id="rId8"/>
+    <sheet name="Line 6" sheetId="7" r:id="rId9"/>
+    <sheet name="Line 7" sheetId="8" r:id="rId10"/>
+    <sheet name="Line 8" sheetId="9" r:id="rId11"/>
+    <sheet name="Line 9" sheetId="10" r:id="rId12"/>
+    <sheet name="Line 10" sheetId="11" r:id="rId13"/>
+    <sheet name="Line 11" sheetId="13" r:id="rId14"/>
+    <sheet name="Line 12" sheetId="15" r:id="rId15"/>
+    <sheet name="Line 13" sheetId="16" r:id="rId16"/>
+    <sheet name="Line 14" sheetId="17" r:id="rId17"/>
+    <sheet name="Line 15" sheetId="18" r:id="rId18"/>
+    <sheet name="Line 16" sheetId="19" r:id="rId19"/>
+    <sheet name="Line 17" sheetId="20" r:id="rId20"/>
+    <sheet name="Line 18" sheetId="21" r:id="rId21"/>
+    <sheet name="Line 19" sheetId="22" r:id="rId22"/>
+    <sheet name="Line 20" sheetId="23" r:id="rId23"/>
+    <sheet name="Line 21" sheetId="24" r:id="rId24"/>
+    <sheet name="Line 23" sheetId="25" r:id="rId25"/>
+    <sheet name="Pujiang Line" sheetId="26" r:id="rId26"/>
+    <sheet name="Chongming Line" sheetId="27" r:id="rId27"/>
+    <sheet name="Airport Line" sheetId="29" r:id="rId28"/>
+    <sheet name="Jiamin Line" sheetId="30" r:id="rId29"/>
+    <sheet name="Maglev Line" sheetId="28" r:id="rId30"/>
+    <sheet name="Jinshan Railway" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1182">
   <si>
     <t>Pujiang Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4274,6 +4276,162 @@
   </si>
   <si>
     <t>Zhangjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huangpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuhui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Putuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongkou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baoshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pudong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Songjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qingpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fengxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jing'an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普陀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huangpu River</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suzhou Creek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dianshan Lake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄浦江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淀山湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴水湖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4623,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -5130,6 +5288,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="1">
+        <v>264</v>
+      </c>
+      <c r="E1" s="1">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1">
+        <v>258</v>
+      </c>
+      <c r="E2" s="1">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="1">
+        <v>245</v>
+      </c>
+      <c r="E3" s="1">
+        <v>140</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="1">
+        <v>235</v>
+      </c>
+      <c r="E4" s="1">
+        <v>136</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="1">
+        <v>229</v>
+      </c>
+      <c r="E5" s="1">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="1">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1">
+        <v>136</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="1">
+        <v>213</v>
+      </c>
+      <c r="E7" s="1">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="1">
+        <v>207</v>
+      </c>
+      <c r="E8" s="1">
+        <v>136</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="1">
+        <v>197</v>
+      </c>
+      <c r="E9" s="1">
+        <v>136</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="1">
+        <v>190</v>
+      </c>
+      <c r="E10" s="1">
+        <v>136</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D11" s="1">
+        <v>178</v>
+      </c>
+      <c r="E11" s="1">
+        <v>141</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="1">
+        <v>175</v>
+      </c>
+      <c r="E12" s="1">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="1">
+        <v>175</v>
+      </c>
+      <c r="E13" s="1">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="1">
+        <v>175</v>
+      </c>
+      <c r="E14" s="1">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>175</v>
+      </c>
+      <c r="E15" s="1">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1">
+        <v>175</v>
+      </c>
+      <c r="E16" s="1">
+        <v>189</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="1">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1">
+        <v>196</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="1">
+        <v>175</v>
+      </c>
+      <c r="E18" s="1">
+        <v>203</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="1">
+        <v>175</v>
+      </c>
+      <c r="E19" s="1">
+        <v>211</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="1">
+        <v>175</v>
+      </c>
+      <c r="E20" s="1">
+        <v>220</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="1">
+        <v>175</v>
+      </c>
+      <c r="E21" s="1">
+        <v>227</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="1">
+        <v>175</v>
+      </c>
+      <c r="E22" s="1">
+        <v>233</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="1">
+        <v>175</v>
+      </c>
+      <c r="E23" s="1">
+        <v>239</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="1">
+        <v>175</v>
+      </c>
+      <c r="E24" s="1">
+        <v>245</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="1">
+        <v>175</v>
+      </c>
+      <c r="E25" s="1">
+        <v>251</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="1">
+        <v>175</v>
+      </c>
+      <c r="E26" s="1">
+        <v>257</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="1">
+        <v>172</v>
+      </c>
+      <c r="E27" s="1">
+        <v>262</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="1">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1">
+        <v>262</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="1">
+        <v>150</v>
+      </c>
+      <c r="E29" s="1">
+        <v>265</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="1">
+        <v>154</v>
+      </c>
+      <c r="E30" s="1">
+        <v>272</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="1">
+        <v>154</v>
+      </c>
+      <c r="E31" s="1">
+        <v>278</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="1">
+        <v>154</v>
+      </c>
+      <c r="E32" s="1">
+        <v>282</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="1">
+        <v>158</v>
+      </c>
+      <c r="E33" s="1">
+        <v>292</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="1">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1">
+        <v>296</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="1">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="1">
+        <v>191</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="1">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="1">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="1">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1">
+        <v>98</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="1">
+        <v>191</v>
+      </c>
+      <c r="E6" s="1">
+        <v>109</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="1">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>124</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="1">
+        <v>206</v>
+      </c>
+      <c r="E9" s="1">
+        <v>128</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="1">
+        <v>206</v>
+      </c>
+      <c r="E10" s="1">
+        <v>136</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="1">
+        <v>206</v>
+      </c>
+      <c r="E11" s="1">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="1">
+        <v>206</v>
+      </c>
+      <c r="E12" s="1">
+        <v>156</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="1">
+        <v>206</v>
+      </c>
+      <c r="E13" s="1">
+        <v>164</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="1">
+        <v>206</v>
+      </c>
+      <c r="E14" s="1">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="1">
+        <v>206</v>
+      </c>
+      <c r="E15" s="1">
+        <v>180</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="1">
+        <v>206</v>
+      </c>
+      <c r="E16" s="1">
+        <v>188</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="1">
+        <v>206</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="1">
+        <v>206</v>
+      </c>
+      <c r="E18" s="1">
+        <v>216</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="1">
+        <v>210</v>
+      </c>
+      <c r="E19" s="1">
+        <v>224</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="1">
+        <v>219</v>
+      </c>
+      <c r="E20" s="1">
+        <v>227</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="1">
+        <v>227</v>
+      </c>
+      <c r="E21" s="1">
+        <v>227</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="1">
+        <v>235</v>
+      </c>
+      <c r="E22" s="1">
+        <v>222</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="1">
+        <v>244</v>
+      </c>
+      <c r="E23" s="1">
+        <v>219</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="1">
+        <v>252</v>
+      </c>
+      <c r="E24" s="1">
+        <v>219</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="1">
+        <v>260</v>
+      </c>
+      <c r="E25" s="1">
+        <v>219</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" s="1">
+        <v>264</v>
+      </c>
+      <c r="E26" s="1">
+        <v>225</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" s="1">
+        <v>264</v>
+      </c>
+      <c r="E27" s="1">
+        <v>232</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="1">
+        <v>264</v>
+      </c>
+      <c r="E28" s="1">
+        <v>239</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="1">
+        <v>264</v>
+      </c>
+      <c r="E29" s="1">
+        <v>246</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="1">
+        <v>264</v>
+      </c>
+      <c r="E30" s="1">
+        <v>254</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -5823,12 +7232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6193,9 +7602,6 @@
       <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -6306,9 +7712,6 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
@@ -6542,11 +7945,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -7353,11 +8756,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -7930,12 +9333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8384,9 +9787,6 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>315</v>
       </c>
@@ -8398,9 +9798,6 @@
       </c>
       <c r="F25" s="1">
         <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -8617,7 +10014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -9196,11 +10593,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -9774,7 +11171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -10051,7 +11448,348 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1">
+        <v>214</v>
+      </c>
+      <c r="D1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C4">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C5">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C7">
+        <v>237</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
+      </c>
+      <c r="D8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C9">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C10">
+        <v>184</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C12">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C14">
+        <v>268</v>
+      </c>
+      <c r="D14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C15">
+        <v>230</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+      <c r="D16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C17">
+        <v>336</v>
+      </c>
+      <c r="D17">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C21">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C22">
+        <v>364</v>
+      </c>
+      <c r="D22">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C23">
+        <v>332</v>
+      </c>
+      <c r="D23">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -10348,11 +12086,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -10923,7 +12661,2840 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D1">
+        <v>208</v>
+      </c>
+      <c r="E1">
+        <v>280</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D2">
+        <v>214</v>
+      </c>
+      <c r="E2">
+        <v>276</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3">
+        <v>214</v>
+      </c>
+      <c r="E3">
+        <v>270</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D4">
+        <v>211</v>
+      </c>
+      <c r="E4">
+        <v>266</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D5">
+        <v>209</v>
+      </c>
+      <c r="E5">
+        <v>262</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D6">
+        <v>209</v>
+      </c>
+      <c r="E6">
+        <v>256</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B8" t="s">
+        <v>897</v>
+      </c>
+      <c r="D8">
+        <v>209</v>
+      </c>
+      <c r="E8">
+        <v>244</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D9">
+        <v>209</v>
+      </c>
+      <c r="E9">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D10">
+        <v>212</v>
+      </c>
+      <c r="E10">
+        <v>232</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B11" t="s">
+        <v>900</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>230</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B12" t="s">
+        <v>901</v>
+      </c>
+      <c r="D12">
+        <v>223</v>
+      </c>
+      <c r="E12">
+        <v>221</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>902</v>
+      </c>
+      <c r="D13">
+        <v>225</v>
+      </c>
+      <c r="E13">
+        <v>212</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" t="s">
+        <v>903</v>
+      </c>
+      <c r="D14">
+        <v>231</v>
+      </c>
+      <c r="E14">
+        <v>206</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>904</v>
+      </c>
+      <c r="D15">
+        <v>234</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>905</v>
+      </c>
+      <c r="D16">
+        <v>234</v>
+      </c>
+      <c r="E16">
+        <v>180</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>906</v>
+      </c>
+      <c r="D17">
+        <v>230</v>
+      </c>
+      <c r="E17">
+        <v>165</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>931</v>
+      </c>
+      <c r="B18" t="s">
+        <v>907</v>
+      </c>
+      <c r="D18">
+        <v>227</v>
+      </c>
+      <c r="E18">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>908</v>
+      </c>
+      <c r="D19">
+        <v>227</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>932</v>
+      </c>
+      <c r="B20" t="s">
+        <v>909</v>
+      </c>
+      <c r="D20">
+        <v>224</v>
+      </c>
+      <c r="E20">
+        <v>146</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>933</v>
+      </c>
+      <c r="B21" t="s">
+        <v>910</v>
+      </c>
+      <c r="D21">
+        <v>218</v>
+      </c>
+      <c r="E21">
+        <v>144</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>934</v>
+      </c>
+      <c r="B22" t="s">
+        <v>911</v>
+      </c>
+      <c r="D22">
+        <v>209</v>
+      </c>
+      <c r="E22">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>198</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D24">
+        <v>192</v>
+      </c>
+      <c r="E24">
+        <v>142</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>913</v>
+      </c>
+      <c r="D25">
+        <v>190</v>
+      </c>
+      <c r="E25">
+        <v>135</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>935</v>
+      </c>
+      <c r="B26" t="s">
+        <v>914</v>
+      </c>
+      <c r="D26">
+        <v>190</v>
+      </c>
+      <c r="E26">
+        <v>129</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
+        <v>915</v>
+      </c>
+      <c r="D27">
+        <v>190</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28">
+        <v>190</v>
+      </c>
+      <c r="E28">
+        <v>109</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>936</v>
+      </c>
+      <c r="B29" t="s">
+        <v>916</v>
+      </c>
+      <c r="D29">
+        <v>184</v>
+      </c>
+      <c r="E29">
+        <v>103</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>937</v>
+      </c>
+      <c r="B30" t="s">
+        <v>917</v>
+      </c>
+      <c r="D30">
+        <v>158</v>
+      </c>
+      <c r="E30">
+        <v>103</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D31">
+        <v>141</v>
+      </c>
+      <c r="E31">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>938</v>
+      </c>
+      <c r="B32" t="s">
+        <v>918</v>
+      </c>
+      <c r="D32">
+        <v>141</v>
+      </c>
+      <c r="E32">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>939</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D33">
+        <v>141</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1">
+        <v>142</v>
+      </c>
+      <c r="E1">
+        <v>233</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>233</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D3">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>230</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D4">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>227</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B5" t="s">
+        <v>944</v>
+      </c>
+      <c r="D5">
+        <v>180</v>
+      </c>
+      <c r="E5">
+        <v>227</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B6" t="s">
+        <v>945</v>
+      </c>
+      <c r="D6">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>230</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>946</v>
+      </c>
+      <c r="D7">
+        <v>198</v>
+      </c>
+      <c r="E7">
+        <v>233</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>899</v>
+      </c>
+      <c r="D8">
+        <v>212</v>
+      </c>
+      <c r="E8">
+        <v>233</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D9">
+        <v>214</v>
+      </c>
+      <c r="E9">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>959</v>
+      </c>
+      <c r="B10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D10">
+        <v>214</v>
+      </c>
+      <c r="E10">
+        <v>242</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>949</v>
+      </c>
+      <c r="D11">
+        <v>219</v>
+      </c>
+      <c r="E11">
+        <v>247</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>950</v>
+      </c>
+      <c r="D12">
+        <v>233</v>
+      </c>
+      <c r="E12">
+        <v>247</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>951</v>
+      </c>
+      <c r="D13">
+        <v>248</v>
+      </c>
+      <c r="E13">
+        <v>247</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B14" t="s">
+        <v>952</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="E14">
+        <v>247</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15">
+        <v>264</v>
+      </c>
+      <c r="E15">
+        <v>247</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>961</v>
+      </c>
+      <c r="B16" t="s">
+        <v>953</v>
+      </c>
+      <c r="D16">
+        <v>273</v>
+      </c>
+      <c r="E16">
+        <v>247</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1">
+        <v>295</v>
+      </c>
+      <c r="E1">
+        <v>208</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2">
+        <v>302</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3">
+        <v>302</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D4">
+        <v>294</v>
+      </c>
+      <c r="E4">
+        <v>157</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B5" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5">
+        <v>294</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>966</v>
+      </c>
+      <c r="D6">
+        <v>294</v>
+      </c>
+      <c r="E6">
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D7">
+        <v>286</v>
+      </c>
+      <c r="E7">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>976</v>
+      </c>
+      <c r="B8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8">
+        <v>286</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9">
+        <v>286</v>
+      </c>
+      <c r="E9">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B10" t="s">
+        <v>969</v>
+      </c>
+      <c r="D10">
+        <v>286</v>
+      </c>
+      <c r="E10">
+        <v>107</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>970</v>
+      </c>
+      <c r="D11">
+        <v>281</v>
+      </c>
+      <c r="E11">
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>978</v>
+      </c>
+      <c r="B12" t="s">
+        <v>971</v>
+      </c>
+      <c r="D12">
+        <v>286</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13">
+        <v>302</v>
+      </c>
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>979</v>
+      </c>
+      <c r="B14" t="s">
+        <v>972</v>
+      </c>
+      <c r="D14">
+        <v>312</v>
+      </c>
+      <c r="E14">
+        <v>88</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>980</v>
+      </c>
+      <c r="B15" t="s">
+        <v>973</v>
+      </c>
+      <c r="D15">
+        <v>322</v>
+      </c>
+      <c r="E15">
+        <v>88</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D1">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1">
+        <v>156</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D2">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>144</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D3">
+        <v>159</v>
+      </c>
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D4">
+        <v>159</v>
+      </c>
+      <c r="E4">
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>117</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>986</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D8">
+        <v>156</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>988</v>
+      </c>
+      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D10">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D11">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>991</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>992</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>993</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>994</v>
+      </c>
+      <c r="D17">
+        <v>122</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D18">
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>996</v>
+      </c>
+      <c r="D19">
+        <v>108</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>997</v>
+      </c>
+      <c r="D20">
+        <v>101</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>998</v>
+      </c>
+      <c r="D21">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>999</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1">
+        <v>191</v>
+      </c>
+      <c r="E1">
+        <v>73</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D2">
+        <v>198</v>
+      </c>
+      <c r="E2">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D6">
+        <v>196</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="1">
+        <v>312</v>
+      </c>
+      <c r="E1" s="1">
+        <v>184</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D2" s="1">
+        <v>312</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="1">
+        <v>316</v>
+      </c>
+      <c r="E3" s="1">
+        <v>210</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D4" s="1">
+        <v>330</v>
+      </c>
+      <c r="E4" s="1">
+        <v>210</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D5" s="1">
+        <v>334</v>
+      </c>
+      <c r="E5" s="1">
+        <v>220</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D6" s="1">
+        <v>342</v>
+      </c>
+      <c r="E6" s="1">
+        <v>254</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D7" s="1">
+        <v>364</v>
+      </c>
+      <c r="E7" s="1">
+        <v>276</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D8" s="1">
+        <v>370</v>
+      </c>
+      <c r="E8" s="1">
+        <v>278</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D9" s="1">
+        <v>374</v>
+      </c>
+      <c r="E9" s="1">
+        <v>280</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D10" s="1">
+        <v>374</v>
+      </c>
+      <c r="E10" s="1">
+        <v>290</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D3">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D5">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D6">
+        <v>258</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D7">
+        <v>281</v>
+      </c>
+      <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D8">
+        <v>312</v>
+      </c>
+      <c r="E8">
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D9" s="1">
+        <v>347</v>
+      </c>
+      <c r="E9" s="1">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D12">
+        <v>347</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D13">
+        <v>344</v>
+      </c>
+      <c r="E13">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D2">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>283</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>276</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1">
+        <v>251</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1">
+        <v>238</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>226</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1">
+        <v>211</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1">
+        <v>182</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1">
+        <v>173</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>104</v>
+      </c>
+      <c r="E13" s="1">
+        <v>156</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>104</v>
+      </c>
+      <c r="E14" s="1">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D15" s="1">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1">
+        <v>111</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1">
+        <v>128</v>
+      </c>
+      <c r="D1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C4">
+        <v>370</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D2" s="1">
+        <v>266</v>
+      </c>
+      <c r="E2" s="1">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" s="1">
+        <v>271</v>
+      </c>
+      <c r="E3" s="1">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4" s="1">
+        <v>280</v>
+      </c>
+      <c r="E4" s="1">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D5" s="1">
+        <v>330</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D6" s="1">
+        <v>348</v>
+      </c>
+      <c r="E6" s="1">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -11525,2774 +16096,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1">
-        <v>208</v>
-      </c>
-      <c r="E1">
-        <v>280</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>920</v>
-      </c>
-      <c r="B2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D2">
-        <v>214</v>
-      </c>
-      <c r="E2">
-        <v>276</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D3">
-        <v>214</v>
-      </c>
-      <c r="E3">
-        <v>270</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>894</v>
-      </c>
-      <c r="D4">
-        <v>211</v>
-      </c>
-      <c r="E4">
-        <v>266</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>846</v>
-      </c>
-      <c r="D5">
-        <v>209</v>
-      </c>
-      <c r="E5">
-        <v>262</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>923</v>
-      </c>
-      <c r="B6" t="s">
-        <v>895</v>
-      </c>
-      <c r="D6">
-        <v>209</v>
-      </c>
-      <c r="E6">
-        <v>256</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>924</v>
-      </c>
-      <c r="B7" t="s">
-        <v>896</v>
-      </c>
-      <c r="D7">
-        <v>209</v>
-      </c>
-      <c r="E7">
-        <v>250</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>925</v>
-      </c>
-      <c r="B8" t="s">
-        <v>897</v>
-      </c>
-      <c r="D8">
-        <v>209</v>
-      </c>
-      <c r="E8">
-        <v>244</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>926</v>
-      </c>
-      <c r="B9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D9">
-        <v>209</v>
-      </c>
-      <c r="E9">
-        <v>238</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>927</v>
-      </c>
-      <c r="B10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D10">
-        <v>212</v>
-      </c>
-      <c r="E10">
-        <v>232</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B11" t="s">
-        <v>900</v>
-      </c>
-      <c r="D11">
-        <v>223</v>
-      </c>
-      <c r="E11">
-        <v>230</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>929</v>
-      </c>
-      <c r="B12" t="s">
-        <v>901</v>
-      </c>
-      <c r="D12">
-        <v>223</v>
-      </c>
-      <c r="E12">
-        <v>221</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>902</v>
-      </c>
-      <c r="D13">
-        <v>225</v>
-      </c>
-      <c r="E13">
-        <v>212</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>930</v>
-      </c>
-      <c r="B14" t="s">
-        <v>903</v>
-      </c>
-      <c r="D14">
-        <v>231</v>
-      </c>
-      <c r="E14">
-        <v>206</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>904</v>
-      </c>
-      <c r="D15">
-        <v>234</v>
-      </c>
-      <c r="E15">
-        <v>200</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>905</v>
-      </c>
-      <c r="D16">
-        <v>234</v>
-      </c>
-      <c r="E16">
-        <v>180</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>906</v>
-      </c>
-      <c r="D17">
-        <v>230</v>
-      </c>
-      <c r="E17">
-        <v>165</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>931</v>
-      </c>
-      <c r="B18" t="s">
-        <v>907</v>
-      </c>
-      <c r="D18">
-        <v>227</v>
-      </c>
-      <c r="E18">
-        <v>158</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
-        <v>908</v>
-      </c>
-      <c r="D19">
-        <v>227</v>
-      </c>
-      <c r="E19">
-        <v>150</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>932</v>
-      </c>
-      <c r="B20" t="s">
-        <v>909</v>
-      </c>
-      <c r="D20">
-        <v>224</v>
-      </c>
-      <c r="E20">
-        <v>146</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>933</v>
-      </c>
-      <c r="B21" t="s">
-        <v>910</v>
-      </c>
-      <c r="D21">
-        <v>218</v>
-      </c>
-      <c r="E21">
-        <v>144</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>934</v>
-      </c>
-      <c r="B22" t="s">
-        <v>911</v>
-      </c>
-      <c r="D22">
-        <v>209</v>
-      </c>
-      <c r="E22">
-        <v>144</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>912</v>
-      </c>
-      <c r="D23">
-        <v>198</v>
-      </c>
-      <c r="E23">
-        <v>144</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D24">
-        <v>192</v>
-      </c>
-      <c r="E24">
-        <v>142</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>913</v>
-      </c>
-      <c r="D25">
-        <v>190</v>
-      </c>
-      <c r="E25">
-        <v>135</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>935</v>
-      </c>
-      <c r="B26" t="s">
-        <v>914</v>
-      </c>
-      <c r="D26">
-        <v>190</v>
-      </c>
-      <c r="E26">
-        <v>129</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>915</v>
-      </c>
-      <c r="D27">
-        <v>190</v>
-      </c>
-      <c r="E27">
-        <v>120</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
-        <v>367</v>
-      </c>
-      <c r="D28">
-        <v>190</v>
-      </c>
-      <c r="E28">
-        <v>109</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>936</v>
-      </c>
-      <c r="B29" t="s">
-        <v>916</v>
-      </c>
-      <c r="D29">
-        <v>184</v>
-      </c>
-      <c r="E29">
-        <v>103</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>937</v>
-      </c>
-      <c r="B30" t="s">
-        <v>917</v>
-      </c>
-      <c r="D30">
-        <v>158</v>
-      </c>
-      <c r="E30">
-        <v>103</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
-        <v>762</v>
-      </c>
-      <c r="D31">
-        <v>141</v>
-      </c>
-      <c r="E31">
-        <v>99</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>938</v>
-      </c>
-      <c r="B32" t="s">
-        <v>918</v>
-      </c>
-      <c r="D32">
-        <v>141</v>
-      </c>
-      <c r="E32">
-        <v>87</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>939</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D33">
-        <v>141</v>
-      </c>
-      <c r="E33">
-        <v>80</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D1">
-        <v>142</v>
-      </c>
-      <c r="E1">
-        <v>233</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>941</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2">
-        <v>233</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>955</v>
-      </c>
-      <c r="B3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D3">
-        <v>163</v>
-      </c>
-      <c r="E3">
-        <v>230</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>943</v>
-      </c>
-      <c r="D4">
-        <v>174</v>
-      </c>
-      <c r="E4">
-        <v>227</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B5" t="s">
-        <v>944</v>
-      </c>
-      <c r="D5">
-        <v>180</v>
-      </c>
-      <c r="E5">
-        <v>227</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>957</v>
-      </c>
-      <c r="B6" t="s">
-        <v>945</v>
-      </c>
-      <c r="D6">
-        <v>186</v>
-      </c>
-      <c r="E6">
-        <v>230</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>946</v>
-      </c>
-      <c r="D7">
-        <v>198</v>
-      </c>
-      <c r="E7">
-        <v>233</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>899</v>
-      </c>
-      <c r="D8">
-        <v>212</v>
-      </c>
-      <c r="E8">
-        <v>233</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>958</v>
-      </c>
-      <c r="B9" t="s">
-        <v>947</v>
-      </c>
-      <c r="D9">
-        <v>214</v>
-      </c>
-      <c r="E9">
-        <v>238</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>959</v>
-      </c>
-      <c r="B10" t="s">
-        <v>948</v>
-      </c>
-      <c r="D10">
-        <v>214</v>
-      </c>
-      <c r="E10">
-        <v>242</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>949</v>
-      </c>
-      <c r="D11">
-        <v>219</v>
-      </c>
-      <c r="E11">
-        <v>247</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>950</v>
-      </c>
-      <c r="D12">
-        <v>233</v>
-      </c>
-      <c r="E12">
-        <v>247</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>951</v>
-      </c>
-      <c r="D13">
-        <v>248</v>
-      </c>
-      <c r="E13">
-        <v>247</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>960</v>
-      </c>
-      <c r="B14" t="s">
-        <v>952</v>
-      </c>
-      <c r="D14">
-        <v>256</v>
-      </c>
-      <c r="E14">
-        <v>247</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>396</v>
-      </c>
-      <c r="D15">
-        <v>264</v>
-      </c>
-      <c r="E15">
-        <v>247</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>961</v>
-      </c>
-      <c r="B16" t="s">
-        <v>953</v>
-      </c>
-      <c r="D16">
-        <v>273</v>
-      </c>
-      <c r="E16">
-        <v>247</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D1">
-        <v>295</v>
-      </c>
-      <c r="E1">
-        <v>208</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>963</v>
-      </c>
-      <c r="D2">
-        <v>302</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D3">
-        <v>302</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>964</v>
-      </c>
-      <c r="D4">
-        <v>294</v>
-      </c>
-      <c r="E4">
-        <v>157</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>974</v>
-      </c>
-      <c r="B5" t="s">
-        <v>965</v>
-      </c>
-      <c r="D5">
-        <v>294</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>966</v>
-      </c>
-      <c r="D6">
-        <v>294</v>
-      </c>
-      <c r="E6">
-        <v>143</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>975</v>
-      </c>
-      <c r="B7" t="s">
-        <v>967</v>
-      </c>
-      <c r="D7">
-        <v>286</v>
-      </c>
-      <c r="E7">
-        <v>131</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>976</v>
-      </c>
-      <c r="B8" t="s">
-        <v>968</v>
-      </c>
-      <c r="D8">
-        <v>286</v>
-      </c>
-      <c r="E8">
-        <v>124</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>691</v>
-      </c>
-      <c r="D9">
-        <v>286</v>
-      </c>
-      <c r="E9">
-        <v>117</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>977</v>
-      </c>
-      <c r="B10" t="s">
-        <v>969</v>
-      </c>
-      <c r="D10">
-        <v>286</v>
-      </c>
-      <c r="E10">
-        <v>107</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>970</v>
-      </c>
-      <c r="D11">
-        <v>281</v>
-      </c>
-      <c r="E11">
-        <v>97</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>978</v>
-      </c>
-      <c r="B12" t="s">
-        <v>971</v>
-      </c>
-      <c r="D12">
-        <v>286</v>
-      </c>
-      <c r="E12">
-        <v>91</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13">
-        <v>302</v>
-      </c>
-      <c r="E13">
-        <v>88</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>979</v>
-      </c>
-      <c r="B14" t="s">
-        <v>972</v>
-      </c>
-      <c r="D14">
-        <v>312</v>
-      </c>
-      <c r="E14">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>980</v>
-      </c>
-      <c r="B15" t="s">
-        <v>973</v>
-      </c>
-      <c r="D15">
-        <v>322</v>
-      </c>
-      <c r="E15">
-        <v>88</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D1">
-        <v>167</v>
-      </c>
-      <c r="E1" s="1">
-        <v>156</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D2">
-        <v>159</v>
-      </c>
-      <c r="E2">
-        <v>144</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>983</v>
-      </c>
-      <c r="D3">
-        <v>159</v>
-      </c>
-      <c r="E3">
-        <v>132</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>984</v>
-      </c>
-      <c r="D4">
-        <v>159</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>985</v>
-      </c>
-      <c r="D5">
-        <v>159</v>
-      </c>
-      <c r="E5">
-        <v>117</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>986</v>
-      </c>
-      <c r="D6">
-        <v>159</v>
-      </c>
-      <c r="E6">
-        <v>110</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D7">
-        <v>159</v>
-      </c>
-      <c r="E7">
-        <v>103</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>987</v>
-      </c>
-      <c r="D8">
-        <v>156</v>
-      </c>
-      <c r="E8">
-        <v>97</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>988</v>
-      </c>
-      <c r="D9">
-        <v>154</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D10">
-        <v>154</v>
-      </c>
-      <c r="E10">
-        <v>88</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B11" t="s">
-        <v>989</v>
-      </c>
-      <c r="D11">
-        <v>152</v>
-      </c>
-      <c r="E11">
-        <v>84</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B12" t="s">
-        <v>990</v>
-      </c>
-      <c r="D12">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>78</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B13" t="s">
-        <v>991</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>73</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B14" t="s">
-        <v>992</v>
-      </c>
-      <c r="D14">
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B15" t="s">
-        <v>993</v>
-      </c>
-      <c r="D15">
-        <v>140</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>769</v>
-      </c>
-      <c r="D16">
-        <v>130</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B17" t="s">
-        <v>994</v>
-      </c>
-      <c r="D17">
-        <v>122</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
-        <v>995</v>
-      </c>
-      <c r="D18">
-        <v>114</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" t="s">
-        <v>996</v>
-      </c>
-      <c r="D19">
-        <v>108</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" t="s">
-        <v>997</v>
-      </c>
-      <c r="D20">
-        <v>101</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" t="s">
-        <v>998</v>
-      </c>
-      <c r="D21">
-        <v>94</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B22" t="s">
-        <v>999</v>
-      </c>
-      <c r="D22">
-        <v>88</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1">
-        <v>191</v>
-      </c>
-      <c r="E1">
-        <v>73</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D2">
-        <v>198</v>
-      </c>
-      <c r="E2">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>61</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D6">
-        <v>196</v>
-      </c>
-      <c r="E6">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="1">
-        <v>312</v>
-      </c>
-      <c r="E1" s="1">
-        <v>184</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D2" s="1">
-        <v>312</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D3" s="1">
-        <v>316</v>
-      </c>
-      <c r="E3" s="1">
-        <v>210</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D4" s="1">
-        <v>330</v>
-      </c>
-      <c r="E4" s="1">
-        <v>210</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D5" s="1">
-        <v>334</v>
-      </c>
-      <c r="E5" s="1">
-        <v>220</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D6" s="1">
-        <v>342</v>
-      </c>
-      <c r="E6" s="1">
-        <v>254</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D7" s="1">
-        <v>364</v>
-      </c>
-      <c r="E7" s="1">
-        <v>276</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D8" s="1">
-        <v>370</v>
-      </c>
-      <c r="E8" s="1">
-        <v>278</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D9" s="1">
-        <v>374</v>
-      </c>
-      <c r="E9" s="1">
-        <v>280</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D10" s="1">
-        <v>374</v>
-      </c>
-      <c r="E10" s="1">
-        <v>290</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1">
-        <v>179</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>102</v>
-      </c>
-      <c r="E2" s="1">
-        <v>156</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D3">
-        <v>139</v>
-      </c>
-      <c r="E3">
-        <v>99</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D4">
-        <v>180</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>916</v>
-      </c>
-      <c r="D5">
-        <v>184</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D6">
-        <v>258</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>970</v>
-      </c>
-      <c r="D7">
-        <v>281</v>
-      </c>
-      <c r="E7">
-        <v>98</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D8">
-        <v>312</v>
-      </c>
-      <c r="E8">
-        <v>98</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D9" s="1">
-        <v>347</v>
-      </c>
-      <c r="E9" s="1">
-        <v>96</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
-        <v>350</v>
-      </c>
-      <c r="E10">
-        <v>84</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D11">
-        <v>350</v>
-      </c>
-      <c r="E11">
-        <v>74</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D12">
-        <v>347</v>
-      </c>
-      <c r="E12">
-        <v>70</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D13">
-        <v>344</v>
-      </c>
-      <c r="E13">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1">
-        <v>297</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D2">
-        <v>112</v>
-      </c>
-      <c r="E2">
-        <v>283</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>112</v>
-      </c>
-      <c r="E3">
-        <v>276</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4">
-        <v>112</v>
-      </c>
-      <c r="E4">
-        <v>263</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>109</v>
-      </c>
-      <c r="E5" s="1">
-        <v>251</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D6" s="1">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1">
-        <v>238</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>695</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>226</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1">
-        <v>211</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D9">
-        <v>102</v>
-      </c>
-      <c r="E9">
-        <v>194</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>102</v>
-      </c>
-      <c r="E10" s="1">
-        <v>182</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>103</v>
-      </c>
-      <c r="E11" s="1">
-        <v>173</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>104</v>
-      </c>
-      <c r="E12" s="1">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>104</v>
-      </c>
-      <c r="E13" s="1">
-        <v>156</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>104</v>
-      </c>
-      <c r="E14" s="1">
-        <v>135</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D15" s="1">
-        <v>114</v>
-      </c>
-      <c r="E15" s="1">
-        <v>111</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
-        <v>258</v>
-      </c>
-      <c r="E1" s="1">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D2" s="1">
-        <v>266</v>
-      </c>
-      <c r="E2" s="1">
-        <v>138</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D3" s="1">
-        <v>271</v>
-      </c>
-      <c r="E3" s="1">
-        <v>130</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D4" s="1">
-        <v>280</v>
-      </c>
-      <c r="E4" s="1">
-        <v>110</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D5" s="1">
-        <v>330</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D6" s="1">
-        <v>348</v>
-      </c>
-      <c r="E6" s="1">
-        <v>97</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>351</v>
-      </c>
-      <c r="E7" s="1">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D2">
-        <v>104</v>
-      </c>
-      <c r="E2">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D3">
-        <v>84</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>81</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D5">
-        <v>71</v>
-      </c>
-      <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D8">
-        <v>65</v>
-      </c>
-      <c r="E8">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D9">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -14642,7 +16456,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14912,7 +16726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -15509,11 +17323,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -15992,12 +17806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16307,12 +18121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16888,1258 +18702,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="1">
-        <v>264</v>
-      </c>
-      <c r="E1" s="1">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="1">
-        <v>258</v>
-      </c>
-      <c r="E2" s="1">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="1">
-        <v>245</v>
-      </c>
-      <c r="E3" s="1">
-        <v>140</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="1">
-        <v>235</v>
-      </c>
-      <c r="E4" s="1">
-        <v>136</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="1">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1">
-        <v>136</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="1">
-        <v>221</v>
-      </c>
-      <c r="E6" s="1">
-        <v>136</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="1">
-        <v>213</v>
-      </c>
-      <c r="E7" s="1">
-        <v>136</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="1">
-        <v>207</v>
-      </c>
-      <c r="E8" s="1">
-        <v>136</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="1">
-        <v>197</v>
-      </c>
-      <c r="E9" s="1">
-        <v>136</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="1">
-        <v>190</v>
-      </c>
-      <c r="E10" s="1">
-        <v>136</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D11" s="1">
-        <v>178</v>
-      </c>
-      <c r="E11" s="1">
-        <v>141</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="1">
-        <v>175</v>
-      </c>
-      <c r="E12" s="1">
-        <v>148</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="1">
-        <v>175</v>
-      </c>
-      <c r="E13" s="1">
-        <v>157</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="1">
-        <v>175</v>
-      </c>
-      <c r="E14" s="1">
-        <v>165</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>175</v>
-      </c>
-      <c r="E15" s="1">
-        <v>175</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1">
-        <v>175</v>
-      </c>
-      <c r="E16" s="1">
-        <v>189</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" s="1">
-        <v>175</v>
-      </c>
-      <c r="E17" s="1">
-        <v>196</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="1">
-        <v>175</v>
-      </c>
-      <c r="E18" s="1">
-        <v>203</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="1">
-        <v>175</v>
-      </c>
-      <c r="E19" s="1">
-        <v>211</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="1">
-        <v>175</v>
-      </c>
-      <c r="E20" s="1">
-        <v>220</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="1">
-        <v>175</v>
-      </c>
-      <c r="E21" s="1">
-        <v>227</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="1">
-        <v>175</v>
-      </c>
-      <c r="E22" s="1">
-        <v>233</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="1">
-        <v>175</v>
-      </c>
-      <c r="E23" s="1">
-        <v>239</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D24" s="1">
-        <v>175</v>
-      </c>
-      <c r="E24" s="1">
-        <v>245</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="1">
-        <v>175</v>
-      </c>
-      <c r="E25" s="1">
-        <v>251</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D26" s="1">
-        <v>175</v>
-      </c>
-      <c r="E26" s="1">
-        <v>257</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" s="1">
-        <v>172</v>
-      </c>
-      <c r="E27" s="1">
-        <v>262</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D28" s="1">
-        <v>163</v>
-      </c>
-      <c r="E28" s="1">
-        <v>262</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="1">
-        <v>150</v>
-      </c>
-      <c r="E29" s="1">
-        <v>265</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="1">
-        <v>154</v>
-      </c>
-      <c r="E30" s="1">
-        <v>272</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D31" s="1">
-        <v>154</v>
-      </c>
-      <c r="E31" s="1">
-        <v>278</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="1">
-        <v>154</v>
-      </c>
-      <c r="E32" s="1">
-        <v>282</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" s="1">
-        <v>158</v>
-      </c>
-      <c r="E33" s="1">
-        <v>292</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D34" s="1">
-        <v>158</v>
-      </c>
-      <c r="E34" s="1">
-        <v>296</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="1">
-        <v>191</v>
-      </c>
-      <c r="E1" s="1">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="1">
-        <v>191</v>
-      </c>
-      <c r="E2" s="1">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3" s="1">
-        <v>191</v>
-      </c>
-      <c r="E3" s="1">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="1">
-        <v>191</v>
-      </c>
-      <c r="E4" s="1">
-        <v>86</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="1">
-        <v>191</v>
-      </c>
-      <c r="E5" s="1">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="1">
-        <v>191</v>
-      </c>
-      <c r="E6" s="1">
-        <v>109</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="1">
-        <v>191</v>
-      </c>
-      <c r="E7" s="1">
-        <v>120</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1">
-        <v>124</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="1">
-        <v>206</v>
-      </c>
-      <c r="E9" s="1">
-        <v>128</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" s="1">
-        <v>206</v>
-      </c>
-      <c r="E10" s="1">
-        <v>136</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="1">
-        <v>206</v>
-      </c>
-      <c r="E11" s="1">
-        <v>146</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="1">
-        <v>206</v>
-      </c>
-      <c r="E12" s="1">
-        <v>156</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="1">
-        <v>206</v>
-      </c>
-      <c r="E13" s="1">
-        <v>164</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="1">
-        <v>206</v>
-      </c>
-      <c r="E14" s="1">
-        <v>172</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="1">
-        <v>206</v>
-      </c>
-      <c r="E15" s="1">
-        <v>180</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="1">
-        <v>206</v>
-      </c>
-      <c r="E16" s="1">
-        <v>188</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D17" s="1">
-        <v>206</v>
-      </c>
-      <c r="E17" s="1">
-        <v>200</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" s="1">
-        <v>206</v>
-      </c>
-      <c r="E18" s="1">
-        <v>216</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" s="1">
-        <v>210</v>
-      </c>
-      <c r="E19" s="1">
-        <v>224</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D20" s="1">
-        <v>219</v>
-      </c>
-      <c r="E20" s="1">
-        <v>227</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D21" s="1">
-        <v>227</v>
-      </c>
-      <c r="E21" s="1">
-        <v>227</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" s="1">
-        <v>235</v>
-      </c>
-      <c r="E22" s="1">
-        <v>222</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="1">
-        <v>244</v>
-      </c>
-      <c r="E23" s="1">
-        <v>219</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D24" s="1">
-        <v>252</v>
-      </c>
-      <c r="E24" s="1">
-        <v>219</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D25" s="1">
-        <v>260</v>
-      </c>
-      <c r="E25" s="1">
-        <v>219</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D26" s="1">
-        <v>264</v>
-      </c>
-      <c r="E26" s="1">
-        <v>225</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D27" s="1">
-        <v>264</v>
-      </c>
-      <c r="E27" s="1">
-        <v>232</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D28" s="1">
-        <v>264</v>
-      </c>
-      <c r="E28" s="1">
-        <v>239</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D29" s="1">
-        <v>264</v>
-      </c>
-      <c r="E29" s="1">
-        <v>246</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="1">
-        <v>264</v>
-      </c>
-      <c r="E30" s="1">
-        <v>254</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/maplib/files/input_files/input.xlsx
+++ b/maplib/files/input_files/input.xlsx
@@ -4,47 +4,48 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="district name" sheetId="32" r:id="rId2"/>
-    <sheet name="water area name" sheetId="33" r:id="rId3"/>
-    <sheet name="Line 1" sheetId="2" r:id="rId4"/>
-    <sheet name="Line 2" sheetId="3" r:id="rId5"/>
-    <sheet name="Line 3" sheetId="4" r:id="rId6"/>
-    <sheet name="Line 4" sheetId="5" r:id="rId7"/>
-    <sheet name="Line 5" sheetId="6" r:id="rId8"/>
-    <sheet name="Line 6" sheetId="7" r:id="rId9"/>
-    <sheet name="Line 7" sheetId="8" r:id="rId10"/>
-    <sheet name="Line 8" sheetId="9" r:id="rId11"/>
-    <sheet name="Line 9" sheetId="10" r:id="rId12"/>
-    <sheet name="Line 10" sheetId="11" r:id="rId13"/>
-    <sheet name="Line 11" sheetId="13" r:id="rId14"/>
-    <sheet name="Line 12" sheetId="15" r:id="rId15"/>
-    <sheet name="Line 13" sheetId="16" r:id="rId16"/>
-    <sheet name="Line 14" sheetId="17" r:id="rId17"/>
-    <sheet name="Line 15" sheetId="18" r:id="rId18"/>
-    <sheet name="Line 16" sheetId="19" r:id="rId19"/>
-    <sheet name="Line 17" sheetId="20" r:id="rId20"/>
-    <sheet name="Line 18" sheetId="21" r:id="rId21"/>
-    <sheet name="Line 19" sheetId="22" r:id="rId22"/>
-    <sheet name="Line 20" sheetId="23" r:id="rId23"/>
-    <sheet name="Line 21" sheetId="24" r:id="rId24"/>
-    <sheet name="Line 23" sheetId="25" r:id="rId25"/>
-    <sheet name="Pujiang Line" sheetId="26" r:id="rId26"/>
-    <sheet name="Chongming Line" sheetId="27" r:id="rId27"/>
-    <sheet name="Airport Line" sheetId="29" r:id="rId28"/>
-    <sheet name="Jiamin Line" sheetId="30" r:id="rId29"/>
-    <sheet name="Maglev Line" sheetId="28" r:id="rId30"/>
-    <sheet name="Jinshan Railway" sheetId="31" r:id="rId31"/>
+    <sheet name="river name" sheetId="33" r:id="rId3"/>
+    <sheet name="lake name" sheetId="34" r:id="rId4"/>
+    <sheet name="Line 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Line 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Line 3" sheetId="4" r:id="rId7"/>
+    <sheet name="Line 4" sheetId="5" r:id="rId8"/>
+    <sheet name="Line 5" sheetId="6" r:id="rId9"/>
+    <sheet name="Line 6" sheetId="7" r:id="rId10"/>
+    <sheet name="Line 7" sheetId="8" r:id="rId11"/>
+    <sheet name="Line 8" sheetId="9" r:id="rId12"/>
+    <sheet name="Line 9" sheetId="10" r:id="rId13"/>
+    <sheet name="Line 10" sheetId="11" r:id="rId14"/>
+    <sheet name="Line 11" sheetId="13" r:id="rId15"/>
+    <sheet name="Line 12" sheetId="15" r:id="rId16"/>
+    <sheet name="Line 13" sheetId="16" r:id="rId17"/>
+    <sheet name="Line 14" sheetId="17" r:id="rId18"/>
+    <sheet name="Line 15" sheetId="18" r:id="rId19"/>
+    <sheet name="Line 16" sheetId="19" r:id="rId20"/>
+    <sheet name="Line 17" sheetId="20" r:id="rId21"/>
+    <sheet name="Line 18" sheetId="21" r:id="rId22"/>
+    <sheet name="Line 19" sheetId="22" r:id="rId23"/>
+    <sheet name="Line 20" sheetId="23" r:id="rId24"/>
+    <sheet name="Line 21" sheetId="24" r:id="rId25"/>
+    <sheet name="Line 23" sheetId="25" r:id="rId26"/>
+    <sheet name="Pujiang Line" sheetId="26" r:id="rId27"/>
+    <sheet name="Chongming Line" sheetId="27" r:id="rId28"/>
+    <sheet name="Airport Line" sheetId="29" r:id="rId29"/>
+    <sheet name="Jiamin Line" sheetId="30" r:id="rId30"/>
+    <sheet name="Maglev Line" sheetId="28" r:id="rId31"/>
+    <sheet name="Jinshan Railway" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1184">
   <si>
     <t>Pujiang Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4432,6 +4433,14 @@
   </si>
   <si>
     <t>滴水湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangtze River</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5289,6 +5298,589 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1">
+        <v>286</v>
+      </c>
+      <c r="E1" s="1">
+        <v>260</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="1">
+        <v>296</v>
+      </c>
+      <c r="E2" s="1">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>242</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D5" s="1">
+        <v>297</v>
+      </c>
+      <c r="E5" s="1">
+        <v>228</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="1">
+        <v>294</v>
+      </c>
+      <c r="E6" s="1">
+        <v>224</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="1">
+        <v>294</v>
+      </c>
+      <c r="E7" s="1">
+        <v>216</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="1">
+        <v>294</v>
+      </c>
+      <c r="E8" s="1">
+        <v>208</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="1">
+        <v>294</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="1">
+        <v>294</v>
+      </c>
+      <c r="E10" s="1">
+        <v>192</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="1">
+        <v>290</v>
+      </c>
+      <c r="E11" s="1">
+        <v>182</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="1">
+        <v>284</v>
+      </c>
+      <c r="E12" s="1">
+        <v>176</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="1">
+        <v>278</v>
+      </c>
+      <c r="E13" s="1">
+        <v>172</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="1">
+        <v>271</v>
+      </c>
+      <c r="E14" s="1">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="1">
+        <v>265</v>
+      </c>
+      <c r="E15" s="1">
+        <v>172</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="1">
+        <v>258</v>
+      </c>
+      <c r="E16" s="1">
+        <v>172</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="1">
+        <v>251</v>
+      </c>
+      <c r="E17" s="1">
+        <v>172</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="1">
+        <v>240</v>
+      </c>
+      <c r="E18" s="1">
+        <v>164</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="1">
+        <v>234</v>
+      </c>
+      <c r="E19" s="1">
+        <v>156</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="1">
+        <v>234</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="1">
+        <v>231</v>
+      </c>
+      <c r="E21" s="1">
+        <v>145</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="1">
+        <v>227</v>
+      </c>
+      <c r="E22" s="1">
+        <v>141</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="1">
+        <v>222</v>
+      </c>
+      <c r="E23" s="1">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="1">
+        <v>218</v>
+      </c>
+      <c r="E24" s="1">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="1">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1">
+        <v>119</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="1">
+        <v>212</v>
+      </c>
+      <c r="E26" s="1">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="1">
+        <v>205</v>
+      </c>
+      <c r="E27" s="1">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="1">
+        <v>198</v>
+      </c>
+      <c r="E28" s="1">
+        <v>116</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="1">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5947,7 +6539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -6538,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -7232,7 +7824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -7945,7 +8537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -8756,7 +9348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -9333,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -10014,7 +10606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -10593,7 +11185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -11171,7 +11763,348 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1">
+        <v>214</v>
+      </c>
+      <c r="D1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C4">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C5">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C7">
+        <v>237</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
+      </c>
+      <c r="D8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C9">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C10">
+        <v>184</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C12">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C14">
+        <v>268</v>
+      </c>
+      <c r="D14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C15">
+        <v>230</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+      <c r="D16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C17">
+        <v>336</v>
+      </c>
+      <c r="D17">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C21">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C22">
+        <v>364</v>
+      </c>
+      <c r="D22">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C23">
+        <v>332</v>
+      </c>
+      <c r="D23">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -11448,348 +12381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C1">
-        <v>214</v>
-      </c>
-      <c r="D1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
-      <c r="D2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C3">
-        <v>130</v>
-      </c>
-      <c r="D3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C4">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C5">
-        <v>186</v>
-      </c>
-      <c r="D5">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C6">
-        <v>130</v>
-      </c>
-      <c r="D6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C7">
-        <v>237</v>
-      </c>
-      <c r="D7">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C8">
-        <v>260</v>
-      </c>
-      <c r="D8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C9">
-        <v>125</v>
-      </c>
-      <c r="D9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C10">
-        <v>184</v>
-      </c>
-      <c r="D10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C11">
-        <v>240</v>
-      </c>
-      <c r="D11">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C12">
-        <v>175</v>
-      </c>
-      <c r="D12">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C13">
-        <v>88</v>
-      </c>
-      <c r="D13">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C14">
-        <v>268</v>
-      </c>
-      <c r="D14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C15">
-        <v>230</v>
-      </c>
-      <c r="D15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C16">
-        <v>336</v>
-      </c>
-      <c r="D16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C17">
-        <v>336</v>
-      </c>
-      <c r="D17">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C18">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C19">
-        <v>56</v>
-      </c>
-      <c r="D19">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C21">
-        <v>118</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C22">
-        <v>364</v>
-      </c>
-      <c r="D22">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C23">
-        <v>332</v>
-      </c>
-      <c r="D23">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -12086,7 +12678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -12661,7 +13253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -13269,7 +13861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -13561,7 +14153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -13838,7 +14430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -14268,7 +14860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -14401,7 +14993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -14597,7 +15189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -14819,12 +15411,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
+      </c>
+      <c r="D1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C3">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14989,7 +15642,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -15105,82 +15758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C1">
-        <v>128</v>
-      </c>
-      <c r="D1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C2">
-        <v>122</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C4">
-        <v>370</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F7"/>
   <sheetViews>
@@ -15305,7 +15883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -15495,6 +16073,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2">
+        <v>370</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -16096,7 +16721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -16726,7 +17351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -17323,7 +17948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -17806,7 +18431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -18119,587 +18744,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="1">
-        <v>286</v>
-      </c>
-      <c r="E1" s="1">
-        <v>260</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="1">
-        <v>296</v>
-      </c>
-      <c r="E2" s="1">
-        <v>254</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="1">
-        <v>300</v>
-      </c>
-      <c r="E3" s="1">
-        <v>242</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="1">
-        <v>300</v>
-      </c>
-      <c r="E4" s="1">
-        <v>232</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D5" s="1">
-        <v>297</v>
-      </c>
-      <c r="E5" s="1">
-        <v>228</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="1">
-        <v>294</v>
-      </c>
-      <c r="E6" s="1">
-        <v>224</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="1">
-        <v>294</v>
-      </c>
-      <c r="E7" s="1">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="1">
-        <v>294</v>
-      </c>
-      <c r="E8" s="1">
-        <v>208</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="1">
-        <v>294</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="1">
-        <v>294</v>
-      </c>
-      <c r="E10" s="1">
-        <v>192</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="1">
-        <v>290</v>
-      </c>
-      <c r="E11" s="1">
-        <v>182</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="1">
-        <v>284</v>
-      </c>
-      <c r="E12" s="1">
-        <v>176</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="1">
-        <v>278</v>
-      </c>
-      <c r="E13" s="1">
-        <v>172</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="1">
-        <v>271</v>
-      </c>
-      <c r="E14" s="1">
-        <v>172</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="1">
-        <v>265</v>
-      </c>
-      <c r="E15" s="1">
-        <v>172</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="1">
-        <v>258</v>
-      </c>
-      <c r="E16" s="1">
-        <v>172</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="1">
-        <v>251</v>
-      </c>
-      <c r="E17" s="1">
-        <v>172</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="1">
-        <v>240</v>
-      </c>
-      <c r="E18" s="1">
-        <v>164</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="1">
-        <v>234</v>
-      </c>
-      <c r="E19" s="1">
-        <v>156</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="1">
-        <v>234</v>
-      </c>
-      <c r="E20" s="1">
-        <v>150</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="1">
-        <v>231</v>
-      </c>
-      <c r="E21" s="1">
-        <v>145</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="1">
-        <v>227</v>
-      </c>
-      <c r="E22" s="1">
-        <v>141</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="1">
-        <v>222</v>
-      </c>
-      <c r="E23" s="1">
-        <v>136</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D24" s="1">
-        <v>218</v>
-      </c>
-      <c r="E24" s="1">
-        <v>128</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D25" s="1">
-        <v>218</v>
-      </c>
-      <c r="E25" s="1">
-        <v>119</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" s="1">
-        <v>212</v>
-      </c>
-      <c r="E26" s="1">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" s="1">
-        <v>205</v>
-      </c>
-      <c r="E27" s="1">
-        <v>116</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="1">
-        <v>198</v>
-      </c>
-      <c r="E28" s="1">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="1">
-        <v>192</v>
-      </c>
-      <c r="E29" s="1">
-        <v>120</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>